--- a/data_selection/result/地区生产总值-中山-解释变量v4-先行v4.xlsx
+++ b/data_selection/result/地区生产总值-中山-解释变量v4-先行v4.xlsx
@@ -788,67 +788,67 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>工业销售产值+EX_ST_55_ZYCS</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>大型企业+EX_ST_55_ZYCS</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>股份制企业+EX_ST_55_ZYCS</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>按行业分-计算机、通信和其他电子设备制造业+EX_ST_54_HYZZJ</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>商品房销售额+万元+EX_ST_52_XFYTZ</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>出口产品交货值+EX_ST_55_ZYCS</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>按税种分-海关代征税+EX_ST_53_SS</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>货运量+万吨+EX_ST_58_JTYD</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>重工业+EX_ST_55_ZYCS</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>按行业分-通用设备制造业+EX_ST_54_HYZZJ</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>按行业分-家具制造业+EX_ST_54_HYZZJ</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>工业用电累计增长+EX_ST_30_QSHYD</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>外商及港澳台商投资企业+EX_ST_55_ZYCS</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>按行业分-计算机、通信和其他电子设备制造业+EX_ST_54_HYZZJ</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>按行业分-家具制造业+EX_ST_54_HYZZJ</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>按税种分-海关代征税+EX_ST_53_SS</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>商品房销售额+万元+EX_ST_52_XFYTZ</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>货运量+万吨+EX_ST_58_JTYD</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>工业销售产值+EX_ST_55_ZYCS</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>按行业分-通用设备制造业+EX_ST_54_HYZZJ</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>股份制企业+EX_ST_55_ZYCS</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>工业用电累计增长+EX_ST_30_QSHYD</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>出口产品交货值+EX_ST_55_ZYCS</t>
         </is>
       </c>
     </row>
@@ -904,43 +904,43 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -965,39 +965,39 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R3" t="n">
         <v>5.7</v>
       </c>
-      <c r="R3" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>14.3</v>
       </c>
       <c r="T3" t="n">
         <v>11.5</v>
       </c>
       <c r="U3" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="n">
         <v>101.1093834623</v>
       </c>
+      <c r="V3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>5.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z3" t="n">
         <v>28.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>14.3</v>
+        <v>-2.8</v>
       </c>
       <c r="AB3" t="n">
         <v>4.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
@@ -1022,39 +1022,39 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="n">
+        <v>5.0683544304</v>
+      </c>
+      <c r="R4" t="n">
         <v>7.7</v>
       </c>
-      <c r="R4" t="n">
-        <v>9.5518987342</v>
-      </c>
       <c r="S4" t="n">
-        <v>4.3860759494</v>
+        <v>12.5734177215</v>
       </c>
       <c r="T4" t="n">
         <v>8.967088607599999</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.4103896104</v>
-      </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="n">
         <v>74.7083630347</v>
       </c>
+      <c r="V4" t="n">
+        <v>2.4367088608</v>
+      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>5.0683544304</v>
+        <v>9.5518987342</v>
       </c>
       <c r="Z4" t="n">
         <v>9.4544303797</v>
       </c>
       <c r="AA4" t="n">
-        <v>12.5734177215</v>
+        <v>-0.4103896104</v>
       </c>
       <c r="AB4" t="n">
         <v>2.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.4367088608</v>
+        <v>4.3860759494</v>
       </c>
     </row>
     <row r="5">
@@ -1093,39 +1093,39 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
         <v>6.4</v>
       </c>
-      <c r="R5" t="n">
-        <v>10.5</v>
-      </c>
       <c r="S5" t="n">
-        <v>4.1</v>
+        <v>11.1</v>
       </c>
       <c r="T5" t="n">
         <v>10.4</v>
       </c>
       <c r="U5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="n">
         <v>64.8597043828</v>
       </c>
+      <c r="V5" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>5</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
         <v>3.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>11.1</v>
+        <v>2.7</v>
       </c>
       <c r="AB5" t="n">
         <v>3.1</v>
       </c>
       <c r="AC5" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="6">
@@ -1168,39 +1168,39 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R6" t="n">
         <v>6.4</v>
       </c>
-      <c r="R6" t="n">
-        <v>10.2</v>
-      </c>
       <c r="S6" t="n">
-        <v>3.7</v>
+        <v>10.7</v>
       </c>
       <c r="T6" t="n">
         <v>12.3</v>
       </c>
       <c r="U6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="n">
         <v>37.6967099582</v>
       </c>
+      <c r="V6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>5.3</v>
+        <v>10.2</v>
       </c>
       <c r="Z6" t="n">
         <v>7.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>10.7</v>
+        <v>0.8</v>
       </c>
       <c r="AB6" t="n">
         <v>4.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7">
@@ -1249,43 +1249,43 @@
         <v>79.87238386930001</v>
       </c>
       <c r="Q7" t="n">
+        <v>8.6392405063</v>
+      </c>
+      <c r="R7" t="n">
         <v>9.2088607595</v>
       </c>
-      <c r="R7" t="n">
-        <v>12.3417721519</v>
-      </c>
       <c r="S7" t="n">
-        <v>7.5949367089</v>
+        <v>7.7848101266</v>
       </c>
       <c r="T7" t="n">
         <v>17.9</v>
       </c>
       <c r="U7" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
+        <v>9.018987341799999</v>
+      </c>
+      <c r="W7" t="n">
         <v>14.8292188028</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2</v>
       </c>
       <c r="X7" t="n">
         <v>-2.6497384051</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.6392405063</v>
+        <v>12.3417721519</v>
       </c>
       <c r="Z7" t="n">
         <v>5.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.7848101266</v>
+        <v>5.1</v>
       </c>
       <c r="AB7" t="n">
         <v>10.5104041462</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.018987341799999</v>
+        <v>7.5949367089</v>
       </c>
     </row>
     <row r="8">
@@ -1340,43 +1340,43 @@
         <v>170.0133837918</v>
       </c>
       <c r="Q8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="R8" t="n">
         <v>8.959487534600001</v>
       </c>
-      <c r="R8" t="n">
-        <v>10.6150450139</v>
-      </c>
       <c r="S8" t="n">
-        <v>6.6222299169</v>
+        <v>8.7647160665</v>
       </c>
       <c r="T8" t="n">
         <v>19.6</v>
       </c>
       <c r="U8" t="n">
-        <v>7.1</v>
+        <v>4.5</v>
       </c>
       <c r="V8" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="W8" t="n">
         <v>19.7832077228</v>
-      </c>
-      <c r="W8" t="n">
-        <v>4.5</v>
       </c>
       <c r="X8" t="n">
         <v>-4.2461807664</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.4</v>
+        <v>10.6150450139</v>
       </c>
       <c r="Z8" t="n">
         <v>15.7</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.7647160665</v>
+        <v>7.1</v>
       </c>
       <c r="AB8" t="n">
         <v>9.169067168</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.6</v>
+        <v>6.6222299169</v>
       </c>
     </row>
     <row r="9">
@@ -1431,43 +1431,43 @@
         <v>148.8140219812</v>
       </c>
       <c r="Q9" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="R9" t="n">
         <v>9.155844155800001</v>
       </c>
-      <c r="R9" t="n">
-        <v>9.9350649351</v>
-      </c>
       <c r="S9" t="n">
-        <v>6.8181818182</v>
+        <v>8.8636363636</v>
       </c>
       <c r="T9" t="n">
         <v>18</v>
       </c>
       <c r="U9" t="n">
-        <v>6.9</v>
+        <v>5.2</v>
       </c>
       <c r="V9" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="W9" t="n">
         <v>21.8960462721</v>
-      </c>
-      <c r="W9" t="n">
-        <v>5.2</v>
       </c>
       <c r="X9" t="n">
         <v>-5.6172136209</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.699999999999999</v>
+        <v>9.9350649351</v>
       </c>
       <c r="Z9" t="n">
         <v>12.2</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.8636363636</v>
+        <v>6.9</v>
       </c>
       <c r="AB9" t="n">
         <v>9.547923815900001</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.3</v>
+        <v>6.8181818182</v>
       </c>
     </row>
     <row r="10">
@@ -1520,43 +1520,43 @@
         <v>68.40000000000001</v>
       </c>
       <c r="Q10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="R10" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="R10" t="n">
-        <v>7.2</v>
-      </c>
       <c r="S10" t="n">
-        <v>7.2</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
         <v>16.9</v>
       </c>
       <c r="U10" t="n">
-        <v>9.5</v>
+        <v>4.7</v>
       </c>
       <c r="V10" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="W10" t="n">
         <v>18.9002899039</v>
-      </c>
-      <c r="W10" t="n">
-        <v>4.7</v>
       </c>
       <c r="X10" t="n">
         <v>-3.7051569144</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="Z10" t="n">
         <v>0.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="AB10" t="n">
         <v>7.9783130841</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="11">
@@ -1609,43 +1609,43 @@
         <v>122.1632939052</v>
       </c>
       <c r="Q11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R11" t="n">
         <v>2.1</v>
       </c>
-      <c r="R11" t="n">
-        <v>2.8</v>
-      </c>
       <c r="S11" t="n">
-        <v>-0.2</v>
+        <v>2.6</v>
       </c>
       <c r="T11" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="U11" t="n">
-        <v>10.6</v>
+        <v>-17.5</v>
       </c>
       <c r="V11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W11" t="n">
         <v>17.0061682946383</v>
-      </c>
-      <c r="W11" t="n">
-        <v>-17.5</v>
       </c>
       <c r="X11" t="n">
         <v>3.59218272308514</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Z11" t="n">
         <v>-10.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.6</v>
+        <v>10.6</v>
       </c>
       <c r="AB11" t="n">
         <v>4.6758685801</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.6</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="12">
@@ -1698,43 +1698,43 @@
         <v>129.902061327</v>
       </c>
       <c r="Q12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R12" t="n">
         <v>6.4</v>
       </c>
-      <c r="R12" t="n">
-        <v>5.3</v>
-      </c>
       <c r="S12" t="n">
-        <v>3.6</v>
+        <v>6.9</v>
       </c>
       <c r="T12" t="n">
         <v>5.5</v>
       </c>
       <c r="U12" t="n">
-        <v>10</v>
+        <v>-5.9</v>
       </c>
       <c r="V12" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="W12" t="n">
         <v>7.489335770871429</v>
-      </c>
-      <c r="W12" t="n">
-        <v>-5.9</v>
       </c>
       <c r="X12" t="n">
         <v>-8.43635059795214</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
         <v>-4.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.9</v>
+        <v>10</v>
       </c>
       <c r="AB12" t="n">
         <v>6.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13">
@@ -1787,43 +1787,43 @@
         <v>88.3900732152</v>
       </c>
       <c r="Q13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R13" t="n">
         <v>9.5</v>
       </c>
-      <c r="R13" t="n">
-        <v>3.6</v>
-      </c>
       <c r="S13" t="n">
-        <v>1.8</v>
+        <v>6.6</v>
       </c>
       <c r="T13" t="n">
         <v>4.2</v>
       </c>
       <c r="U13" t="n">
-        <v>7.1</v>
+        <v>-5.84</v>
       </c>
       <c r="V13" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="W13" t="n">
         <v>-0.8</v>
-      </c>
-      <c r="W13" t="n">
-        <v>-5.84</v>
       </c>
       <c r="X13" t="n">
         <v>-5.26390983515354</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Z13" t="n">
         <v>-4.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AB13" t="n">
         <v>4.3068260112</v>
       </c>
       <c r="AC13" t="n">
-        <v>-2.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="14">
@@ -1878,43 +1878,43 @@
         <v>58.1549982247</v>
       </c>
       <c r="Q14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R14" t="n">
         <v>8.1</v>
       </c>
-      <c r="R14" t="n">
-        <v>3.46470588235294</v>
-      </c>
       <c r="S14" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="T14" t="n">
         <v>4.7</v>
       </c>
       <c r="U14" t="n">
-        <v>5.8</v>
+        <v>-7.5</v>
       </c>
       <c r="V14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W14" t="n">
         <v>-6.5</v>
-      </c>
-      <c r="W14" t="n">
-        <v>-7.5</v>
       </c>
       <c r="X14" t="n">
         <v>-5.756351703489321</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.4</v>
+        <v>3.46470588235294</v>
       </c>
       <c r="Z14" t="n">
         <v>2.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB14" t="n">
         <v>4.130407895299999</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15">
@@ -1969,43 +1969,43 @@
         <v>6.047646373131269</v>
       </c>
       <c r="Q15" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="R15" t="n">
         <v>-0.282352941176471</v>
       </c>
-      <c r="R15" t="n">
-        <v>0.658823529411765</v>
-      </c>
       <c r="S15" t="n">
-        <v>-2.35294117647059</v>
+        <v>9.03529411764706</v>
       </c>
       <c r="T15" t="n">
         <v>-3.67058823529412</v>
       </c>
       <c r="U15" t="n">
-        <v>9.694117647058821</v>
+        <v>-18.2</v>
       </c>
       <c r="V15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W15" t="n">
         <v>2.30167941493155</v>
-      </c>
-      <c r="W15" t="n">
-        <v>-18.2</v>
       </c>
       <c r="X15" t="n">
         <v>-20.495581243508</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.3</v>
+        <v>0.658823529411765</v>
       </c>
       <c r="Z15" t="n">
         <v>0.376470588235294</v>
       </c>
       <c r="AA15" t="n">
-        <v>9.03529411764706</v>
+        <v>9.694117647058821</v>
       </c>
       <c r="AB15" t="n">
         <v>4.0103365511</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.6</v>
+        <v>-2.35294117647059</v>
       </c>
     </row>
     <row r="16">
@@ -2058,43 +2058,43 @@
         <v>-43.4276410433697</v>
       </c>
       <c r="Q16" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="R16" t="n">
         <v>-1.12</v>
       </c>
-      <c r="R16" t="n">
-        <v>-2.08</v>
-      </c>
       <c r="S16" t="n">
-        <v>-3.36</v>
+        <v>-0.32</v>
       </c>
       <c r="T16" t="n">
         <v>-3.44</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.44</v>
+        <v>-16.7</v>
       </c>
       <c r="V16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W16" t="n">
         <v>-10.4930835081354</v>
-      </c>
-      <c r="W16" t="n">
-        <v>-16.7</v>
       </c>
       <c r="X16" t="n">
         <v>-21.0865337903781</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.7</v>
+        <v>-2.08</v>
       </c>
       <c r="Z16" t="n">
         <v>-4.64</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.32</v>
+        <v>-1.44</v>
       </c>
       <c r="AB16" t="n">
         <v>1.6883986243</v>
       </c>
       <c r="AC16" t="n">
-        <v>2.5</v>
+        <v>-3.36</v>
       </c>
     </row>
     <row r="17">
@@ -2149,43 +2149,43 @@
         <v>-16.6880702733021</v>
       </c>
       <c r="Q17" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="R17" t="n">
         <v>0.5</v>
       </c>
-      <c r="R17" t="n">
-        <v>-1.8</v>
-      </c>
       <c r="S17" t="n">
-        <v>-5.9</v>
+        <v>1.8</v>
       </c>
       <c r="T17" t="n">
         <v>-9.5</v>
       </c>
       <c r="U17" t="n">
-        <v>-1.3</v>
+        <v>-12.7</v>
       </c>
       <c r="V17" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="W17" t="n">
         <v>-11.7</v>
-      </c>
-      <c r="W17" t="n">
-        <v>-12.7</v>
       </c>
       <c r="X17" t="n">
         <v>-27.5262454367667</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.2</v>
+        <v>-1.8</v>
       </c>
       <c r="Z17" t="n">
         <v>-5.1</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.8</v>
+        <v>-1.3</v>
       </c>
       <c r="AB17" t="n">
         <v>2.3057043359</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.1</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="18">
@@ -2240,43 +2240,43 @@
         <v>-6.91502147479942</v>
       </c>
       <c r="Q18" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="R18" t="n">
         <v>-0.8</v>
       </c>
-      <c r="R18" t="n">
-        <v>-2.4</v>
-      </c>
       <c r="S18" t="n">
-        <v>-6.1</v>
+        <v>2.1</v>
       </c>
       <c r="T18" t="n">
         <v>-11.9</v>
       </c>
       <c r="U18" t="n">
-        <v>-2.1</v>
+        <v>-2.8</v>
       </c>
       <c r="V18" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="W18" t="n">
         <v>-9.4</v>
-      </c>
-      <c r="W18" t="n">
-        <v>-2.8</v>
       </c>
       <c r="X18" t="n">
         <v>-30.7160699519731</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.5</v>
+        <v>-2.4</v>
       </c>
       <c r="Z18" t="n">
         <v>-6.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.1</v>
+        <v>-2.1</v>
       </c>
       <c r="AB18" t="n">
         <v>3.2722226516</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.2</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="19">
@@ -2331,43 +2331,43 @@
         <v>-55.2748801464743</v>
       </c>
       <c r="Q19" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="R19" t="n">
         <v>-22.4</v>
       </c>
-      <c r="R19" t="n">
-        <v>-23.3</v>
-      </c>
       <c r="S19" t="n">
-        <v>-26</v>
+        <v>-25.4</v>
       </c>
       <c r="T19" t="n">
         <v>-31.8</v>
       </c>
       <c r="U19" t="n">
-        <v>-39.4</v>
+        <v>-36.8942837512</v>
       </c>
       <c r="V19" t="n">
+        <v>-26.7</v>
+      </c>
+      <c r="W19" t="n">
         <v>-41.9</v>
-      </c>
-      <c r="W19" t="n">
-        <v>-36.8942837512</v>
       </c>
       <c r="X19" t="n">
         <v>-40.3194728030394</v>
       </c>
       <c r="Y19" t="n">
-        <v>-26.5</v>
+        <v>-23.3</v>
       </c>
       <c r="Z19" t="n">
         <v>-30.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>-25.4</v>
+        <v>-39.4</v>
       </c>
       <c r="AB19" t="n">
         <v>-20.3815217801</v>
       </c>
       <c r="AC19" t="n">
-        <v>-26.7</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="20">
@@ -2422,43 +2422,43 @@
         <v>-22.5492321946027</v>
       </c>
       <c r="Q20" t="n">
+        <v>-10.6</v>
+      </c>
+      <c r="R20" t="n">
         <v>-9.1</v>
       </c>
-      <c r="R20" t="n">
-        <v>-6.9</v>
-      </c>
       <c r="S20" t="n">
-        <v>-14.1</v>
+        <v>-6</v>
       </c>
       <c r="T20" t="n">
         <v>-16.4</v>
       </c>
       <c r="U20" t="n">
-        <v>-20.6</v>
+        <v>-21</v>
       </c>
       <c r="V20" t="n">
+        <v>-16.7</v>
+      </c>
+      <c r="W20" t="n">
         <v>-22.8</v>
-      </c>
-      <c r="W20" t="n">
-        <v>-21</v>
       </c>
       <c r="X20" t="n">
         <v>-34.4223148285766</v>
       </c>
       <c r="Y20" t="n">
-        <v>-10.6</v>
+        <v>-6.9</v>
       </c>
       <c r="Z20" t="n">
         <v>-12.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>-6</v>
+        <v>-20.6</v>
       </c>
       <c r="AB20" t="n">
         <v>-7.6430295985</v>
       </c>
       <c r="AC20" t="n">
-        <v>-16.7</v>
+        <v>-14.1</v>
       </c>
     </row>
     <row r="21">
@@ -2507,43 +2507,43 @@
         <v>-36.5365442699424</v>
       </c>
       <c r="Q21" t="n">
+        <v>-4</v>
+      </c>
+      <c r="R21" t="n">
         <v>-2.2</v>
       </c>
-      <c r="R21" t="n">
-        <v>0.8</v>
-      </c>
       <c r="S21" t="n">
-        <v>-8.699999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="T21" t="n">
         <v>-8.5</v>
       </c>
       <c r="U21" t="n">
-        <v>-11.8</v>
+        <v>-5.1</v>
       </c>
       <c r="V21" t="n">
+        <v>-10.3</v>
+      </c>
+      <c r="W21" t="n">
         <v>-14.7</v>
-      </c>
-      <c r="W21" t="n">
-        <v>-5.1</v>
       </c>
       <c r="X21" t="n">
         <v>-29.0594388897689</v>
       </c>
       <c r="Y21" t="n">
-        <v>-4</v>
+        <v>0.8</v>
       </c>
       <c r="Z21" t="n">
         <v>-3.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.2</v>
+        <v>-11.8</v>
       </c>
       <c r="AB21" t="n">
         <v>-0.6550534889</v>
       </c>
       <c r="AC21" t="n">
-        <v>-10.3</v>
+        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2592,43 +2592,43 @@
         <v>-18.809076026583</v>
       </c>
       <c r="Q22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R22" t="n">
         <v>3.4</v>
       </c>
-      <c r="R22" t="n">
-        <v>5.9</v>
-      </c>
       <c r="S22" t="n">
-        <v>-4.6</v>
+        <v>7.9</v>
       </c>
       <c r="T22" t="n">
         <v>-3.8</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.9</v>
+        <v>4.6</v>
       </c>
       <c r="V22" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="W22" t="n">
         <v>-12.9</v>
-      </c>
-      <c r="W22" t="n">
-        <v>4.6</v>
       </c>
       <c r="X22" t="n">
         <v>-12.2080991666</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.3</v>
+        <v>5.9</v>
       </c>
       <c r="Z22" t="n">
         <v>2.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.9</v>
+        <v>-0.9</v>
       </c>
       <c r="AB22" t="n">
         <v>2.8210480834</v>
       </c>
       <c r="AC22" t="n">
-        <v>-4.2</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="23">
